--- a/src/test/resources/marxls/Pasta2.xlsx
+++ b/src/test/resources/marxls/Pasta2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>D02</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t>04565,5555</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Texto 1</t>
+  </si>
+  <si>
+    <t>Texto 2</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>teste 1</t>
+  </si>
+  <si>
+    <t>teste 2</t>
+  </si>
+  <si>
+    <t>Texto 3</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>tag1;tag2</t>
+  </si>
+  <si>
+    <t>tag3</t>
+  </si>
+  <si>
+    <t>teste 1; teste 2</t>
   </si>
 </sst>
 </file>
@@ -383,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I7"/>
+  <dimension ref="A4:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +440,7 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -411,10 +456,16 @@
       <c r="I4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="1">
-        <v>43325</v>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>43325</v>
@@ -428,13 +479,19 @@
       <c r="I5">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>43357</v>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>43357</v>
@@ -448,10 +505,16 @@
       <c r="I6">
         <v>-524.55555000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="1">
-        <v>40466</v>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>40466</v>
@@ -473,12 +536,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/src/test/resources/marxls/Pasta2.xlsx
+++ b/src/test/resources/marxls/Pasta2.xlsx
@@ -87,7 +87,7 @@
     <t>tag3</t>
   </si>
   <si>
-    <t>teste 1; teste 2</t>
+    <t>teste 1;teste 2</t>
   </si>
 </sst>
 </file>
@@ -430,14 +430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -539,7 +540,7 @@
   <dimension ref="C2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/marxls/Pasta2.xlsx
+++ b/src/test/resources/marxls/Pasta2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>D02</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>tag3</t>
+  </si>
+  <si>
+    <t>teste1</t>
+  </si>
+  <si>
+    <t>teste2</t>
+  </si>
+  <si>
+    <t>C05</t>
   </si>
   <si>
     <t>teste 1;teste 2</t>
@@ -431,7 +440,7 @@
   <dimension ref="A4:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +493,7 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -537,15 +546,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E4"/>
+  <dimension ref="C2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -555,8 +564,11 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -566,8 +578,11 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -576,6 +591,9 @@
       </c>
       <c r="E4" t="s">
         <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
